--- a/IDEARX_PROJECT/Excel/PoFail.xlsx
+++ b/IDEARX_PROJECT/Excel/PoFail.xlsx
@@ -16,18 +16,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
   <si>
     <t>PoID</t>
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>83270</t>
+  </si>
+  <si>
+    <t>DOLO 650 MG TAB</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>83271</t>
+  </si>
+  <si>
+    <t>83272</t>
+  </si>
+  <si>
+    <t>83273</t>
+  </si>
+  <si>
+    <t>24291203 DORSAL HUMERUS PLATE LT 3H</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>ACECLO+PARA+SERRAPETIDE</t>
+  </si>
+  <si>
+    <t>83274</t>
+  </si>
+  <si>
+    <t>83275</t>
+  </si>
+  <si>
+    <t>83276</t>
+  </si>
+  <si>
+    <t>83277</t>
+  </si>
+  <si>
+    <t>83278</t>
+  </si>
+  <si>
+    <t>83279</t>
+  </si>
+  <si>
+    <t>83280</t>
+  </si>
+  <si>
+    <t>83281</t>
+  </si>
+  <si>
+    <t>83282</t>
+  </si>
+  <si>
+    <t>83283</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -353,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -362,12 +420,242 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IDEARX_PROJECT/Excel/PoFail.xlsx
+++ b/IDEARX_PROJECT/Excel/PoFail.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="52">
   <si>
     <t>PoID</t>
   </si>
@@ -79,6 +79,99 @@
   </si>
   <si>
     <t>83283</t>
+  </si>
+  <si>
+    <t>83368</t>
+  </si>
+  <si>
+    <t>PANTOCID  40MG TAB</t>
+  </si>
+  <si>
+    <t>PANTOCID 40MG TAB</t>
+  </si>
+  <si>
+    <t>83369</t>
+  </si>
+  <si>
+    <t>GPO1</t>
+  </si>
+  <si>
+    <t>G-PATCH LARGE GP02 10*12CM</t>
+  </si>
+  <si>
+    <t>83370</t>
+  </si>
+  <si>
+    <t>GPO2</t>
+  </si>
+  <si>
+    <t>83371</t>
+  </si>
+  <si>
+    <t>83372</t>
+  </si>
+  <si>
+    <t>83373</t>
+  </si>
+  <si>
+    <t>83377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOPILET 75MG TAB                              </t>
+  </si>
+  <si>
+    <t>CLOPILET 75MG TAB</t>
+  </si>
+  <si>
+    <t>83379</t>
+  </si>
+  <si>
+    <t>Syringe 40ML - ERP</t>
+  </si>
+  <si>
+    <t>IM81200-1 190ML SYRINGE WITH J FILL TUBE</t>
+  </si>
+  <si>
+    <t>83380</t>
+  </si>
+  <si>
+    <t>GRN1</t>
+  </si>
+  <si>
+    <t>ABDOMINAL BELT (XXXL) MGRM</t>
+  </si>
+  <si>
+    <t>83381</t>
+  </si>
+  <si>
+    <t>83382</t>
+  </si>
+  <si>
+    <t>Paper Art 01</t>
+  </si>
+  <si>
+    <t>PAPER PLASTER 1 INC JMS</t>
+  </si>
+  <si>
+    <t>83384</t>
+  </si>
+  <si>
+    <t>GRN2</t>
+  </si>
+  <si>
+    <t>83385</t>
+  </si>
+  <si>
+    <t>83386</t>
+  </si>
+  <si>
+    <t>83387</t>
+  </si>
+  <si>
+    <t>regtest1</t>
+  </si>
+  <si>
+    <t>BIOSURE REGENESORB INTERFERENCE</t>
   </si>
 </sst>
 </file>
@@ -411,7 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -656,6 +749,376 @@
       </c>
       <c r="C24" s="0"/>
       <c r="D24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0"/>
+      <c r="D35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
